--- a/ISP392/Week2/Docs/Project Tracking interation 1.xlsx
+++ b/ISP392/Week2/Docs/Project Tracking interation 1.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fpt_learning\Spring2023\ISP392\Week2\Docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FA9208E-D684-4701-B8DA-840EA8B44146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8DB31473-13B0-4D1A-BEC8-E40012297B9E}"/>
+    <workbookView windowWidth="23040" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -69,6 +58,12 @@
     <t>Iteration 1</t>
   </si>
   <si>
+    <t>18/01</t>
+  </si>
+  <si>
+    <t>Quang Tú</t>
+  </si>
+  <si>
     <t>Not Start</t>
   </si>
   <si>
@@ -102,6 +97,9 @@
     <t>User will login with account</t>
   </si>
   <si>
+    <t>Đức Thái</t>
+  </si>
+  <si>
     <t>User Register</t>
   </si>
   <si>
@@ -126,6 +124,9 @@
     <t>User can retrieve password when forgotten by confirming information via email</t>
   </si>
   <si>
+    <t>Linh Trang</t>
+  </si>
+  <si>
     <t>Change Password</t>
   </si>
   <si>
@@ -144,6 +145,9 @@
     <t>Customer can comfirm order information like shipping information,... or change it</t>
   </si>
   <si>
+    <t>Xuân Thái</t>
+  </si>
+  <si>
     <t>User Profile</t>
   </si>
   <si>
@@ -162,35 +166,44 @@
     <t>Seller views the detail of 1 of his orders</t>
   </si>
   <si>
-    <t>18/01</t>
+    <t>Ngọc Thành</t>
   </si>
   <si>
     <t>Products List</t>
   </si>
   <si>
-    <t>Marketing</t>
+    <t>Seller</t>
   </si>
   <si>
     <t>seller views and manages all products</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>User can view feedback from other customer about a product</t>
+  </si>
+  <si>
+    <t>literation 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -215,6 +228,12 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Sitka Display"/>
       <charset val="134"/>
     </font>
@@ -232,43 +251,211 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="16"/>
-      <name val="Sitka Display"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF339966"/>
       <name val="Sitka Display"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="17"/>
-      <name val="Sitka Display"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Sitka Display"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Sitka Display"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Sitka Display"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Sitka Display"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Sitka Display"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="16"/>
       <name val="Sitka Display"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="9"/>
+      <color rgb="FF9C0006"/>
       <name val="Sitka Display"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,30 +482,222 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE2EFDA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -375,6 +754,43 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right/>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
@@ -384,25 +800,267 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -411,68 +1069,133 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF339966"/>
+      <color rgb="00339966"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -521,7 +1244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -554,26 +1277,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -606,23 +1312,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -764,37 +1453,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE62BE3-AE99-4BC2-9AAD-B4B8C4F1DAAF}">
-  <dimension ref="A1:I15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="22.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="20.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="29.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="25.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="22.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="22.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="17.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.399999999999999" thickBot="1">
+    <row r="1" ht="20.55" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,7 +1507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.200000000000003" thickBot="1">
+    <row r="2" ht="40.35" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -839,369 +1523,414 @@
       <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="H2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="40.200000000000003" thickBot="1">
+    <row r="3" ht="40.35" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" ht="40.200000000000003" thickBot="1">
+    <row r="4" ht="40.35" spans="1:9">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="27" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" ht="20.399999999999999" thickBot="1">
+    <row r="5" ht="20.55" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="H5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" ht="40.200000000000003" thickBot="1">
+    <row r="6" ht="40.35" spans="1:9">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="27" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" ht="60" thickBot="1">
+    <row r="7" ht="60.15" spans="1:9">
       <c r="A7" s="5">
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="9" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="8" spans="1:9" ht="60" thickBot="1">
+    <row r="8" ht="60.15" spans="1:9">
       <c r="A8" s="5">
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="H8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" ht="40.200000000000003" thickBot="1">
+    <row r="9" ht="40.35" spans="1:9">
       <c r="A9" s="5">
         <v>9</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>31</v>
+      <c r="B9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>45</v>
+      <c r="G9" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="H9" s="17"/>
-      <c r="I9" s="9" t="s">
-        <v>14</v>
+      <c r="I9" s="27" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20.399999999999999" thickBot="1">
+    <row r="10" ht="20.55" spans="1:9">
       <c r="A10" s="5">
         <v>10</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>28</v>
+      <c r="B10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="11" spans="1:9" ht="60" thickBot="1">
+    <row r="11" ht="60.15" spans="1:9">
       <c r="A11" s="5">
         <v>11</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>19</v>
+      <c r="B11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="11" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="12" spans="1:9" ht="40.200000000000003" thickBot="1">
+    <row r="12" ht="40.35" spans="1:9">
       <c r="A12" s="5">
         <v>12</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>31</v>
+      <c r="B12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="11" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="13" spans="1:9" ht="40.200000000000003" thickBot="1">
+    <row r="13" ht="40.35" spans="1:9">
       <c r="A13" s="5">
         <v>13</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>19</v>
+      <c r="B13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="11" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="14" spans="1:9" ht="40.200000000000003" thickBot="1">
+    <row r="14" ht="40.35" spans="1:9">
       <c r="A14" s="5">
         <v>14</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>19</v>
+      <c r="B14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="14" t="s">
+    </row>
+    <row r="15" ht="40.35" spans="1:9">
+      <c r="A15" s="19">
+        <v>15</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="11" t="s">
+      <c r="G15" s="20" t="s">
         <v>14</v>
       </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="28" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" ht="40.200000000000003" thickBot="1">
-      <c r="A15" s="18">
-        <v>15</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="19" t="s">
+    <row r="16" ht="40.35" spans="1:9">
+      <c r="A16" s="21">
         <v>16</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="20" t="s">
+      <c r="B16" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="26" t="s">
         <v>14</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="29" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ISP392/Week2/Docs/Project Tracking interation 1.xlsx
+++ b/ISP392/Week2/Docs/Project Tracking interation 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
   <si>
     <t>#</t>
   </si>
@@ -64,57 +64,75 @@
     <t>Quang Tú</t>
   </si>
   <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Product Details</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Details like description, color, size, ... for customer to choose</t>
+  </si>
+  <si>
+    <t>Product list</t>
+  </si>
+  <si>
+    <t>Customer can see products that they have just searched</t>
+  </si>
+  <si>
+    <t>Cart Details</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Complex</t>
+  </si>
+  <si>
+    <t>List of all the products that have been added into the cart</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>User Login</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>User will login with account</t>
+  </si>
+  <si>
+    <t>Đức Thái</t>
+  </si>
+  <si>
+    <t>User Register</t>
+  </si>
+  <si>
+    <t>Customer can register a new account here</t>
+  </si>
+  <si>
+    <t>User List</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Admin manage accounts</t>
+  </si>
+  <si>
+    <t>User Details</t>
+  </si>
+  <si>
+    <t>User can view information about account and update information</t>
+  </si>
+  <si>
     <t>Not Start</t>
   </si>
   <si>
-    <t>Product Details</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Details like description, color, size, ... for customer to choose</t>
-  </si>
-  <si>
-    <t>Cart Details</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Complex</t>
-  </si>
-  <si>
-    <t>List of all the products that have been added into the cart</t>
-  </si>
-  <si>
-    <t>User Login</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>User will login with account</t>
-  </si>
-  <si>
-    <t>Đức Thái</t>
-  </si>
-  <si>
-    <t>User Register</t>
-  </si>
-  <si>
-    <t>Customer can register a new account here</t>
-  </si>
-  <si>
-    <t>User Details</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>User can view information about account and update information</t>
-  </si>
-  <si>
     <t>Reset Password</t>
   </si>
   <si>
@@ -133,12 +151,6 @@
     <t>It allow user can change new password</t>
   </si>
   <si>
-    <t>User List</t>
-  </si>
-  <si>
-    <t>Admin manage accounts</t>
-  </si>
-  <si>
     <t>Cart Completion (Place Order)</t>
   </si>
   <si>
@@ -184,7 +196,7 @@
     <t>User can view feedback from other customer about a product</t>
   </si>
   <si>
-    <t>literation 2</t>
+    <t>literation 1</t>
   </si>
 </sst>
 </file>
@@ -192,12 +204,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,20 +269,8 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="9"/>
       <name val="Sitka Display"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -305,9 +305,108 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,50 +418,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -371,25 +426,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,60 +447,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,19 +499,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,61 +661,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,103 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,24 +784,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,32 +832,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -893,160 +850,184 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1087,52 +1068,49 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1459,10 +1437,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:H13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1532,7 +1510,7 @@
       <c r="H2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="24" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1559,7 +1537,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="24" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1571,13 +1549,13 @@
         <v>20</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>13</v>
@@ -1585,26 +1563,26 @@
       <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="27" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="20.55" spans="1:9">
+    <row r="5" ht="40.35" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>13</v>
@@ -1612,22 +1590,20 @@
       <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>16</v>
+      <c r="H5" s="13"/>
+      <c r="I5" s="25" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="6" ht="40.35" spans="1:9">
+    <row r="6" ht="20.55" spans="1:9">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>11</v>
@@ -1641,23 +1617,25 @@
       <c r="G6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="27" t="s">
+      <c r="H6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="60.15" spans="1:9">
+    <row r="7" ht="40.35" spans="1:9">
       <c r="A7" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1668,215 +1646,213 @@
       <c r="G7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="27" t="s">
+      <c r="H7" s="11"/>
+      <c r="I7" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="60.15" spans="1:9">
+    <row r="8" ht="20.55" spans="1:9">
       <c r="A8" s="5">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="11"/>
+      <c r="I8" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" ht="60.15" spans="1:9">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="27" t="s">
-        <v>16</v>
+      <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="26" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="9" ht="40.35" spans="1:9">
-      <c r="A9" s="5">
+    <row r="10" ht="60.15" spans="1:9">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="E10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="27" t="s">
-        <v>16</v>
+      <c r="H10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="10" ht="20.55" spans="1:9">
-      <c r="A10" s="5">
+    <row r="11" ht="40.35" spans="1:9">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="B11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="D11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="27" t="s">
-        <v>16</v>
+      <c r="H11" s="17"/>
+      <c r="I11" s="25" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="11" ht="60.15" spans="1:9">
-      <c r="A11" s="5">
+    <row r="12" ht="60.15" spans="1:9">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" ht="40.35" spans="1:9">
-      <c r="A12" s="5">
-        <v>12</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>34</v>
+      <c r="B12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="28" t="s">
-        <v>16</v>
+      <c r="H12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="40.35" spans="1:9">
       <c r="A13" s="5">
-        <v>13</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="28" t="s">
-        <v>16</v>
+      <c r="H13" s="11"/>
+      <c r="I13" s="27" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="40.35" spans="1:9">
       <c r="A14" s="5">
-        <v>14</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>16</v>
+      <c r="H14" s="13"/>
+      <c r="I14" s="27" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="40.35" spans="1:9">
-      <c r="A15" s="19">
-        <v>15</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>52</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>18</v>
@@ -1884,51 +1860,80 @@
       <c r="E15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="28" t="s">
-        <v>16</v>
+      <c r="H15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" ht="40.35" spans="1:9">
-      <c r="A16" s="21">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" ht="40.35" spans="1:9">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="B17" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="26" t="s">
+      <c r="E17" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="29" t="s">
-        <v>16</v>
+      <c r="H17" s="13"/>
+      <c r="I17" s="28" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/ISP392/Week2/Docs/Project Tracking interation 1.xlsx
+++ b/ISP392/Week2/Docs/Project Tracking interation 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -82,118 +82,79 @@
     <t>Customer can see products that they have just searched</t>
   </si>
   <si>
-    <t>Cart Details</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Complex</t>
-  </si>
-  <si>
-    <t>List of all the products that have been added into the cart</t>
+    <t>User Login</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>User will login with account</t>
+  </si>
+  <si>
+    <t>Đức Thái</t>
+  </si>
+  <si>
+    <t>User Register</t>
+  </si>
+  <si>
+    <t>Customer can register a new account here</t>
+  </si>
+  <si>
+    <t>Reset Password</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>User can retrieve password when forgotten by confirming information via email</t>
+  </si>
+  <si>
+    <t>Linh Trang</t>
   </si>
   <si>
     <t>In progress</t>
   </si>
   <si>
-    <t>User Login</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>User will login with account</t>
-  </si>
-  <si>
-    <t>Đức Thái</t>
-  </si>
-  <si>
-    <t>User Register</t>
-  </si>
-  <si>
-    <t>Customer can register a new account here</t>
-  </si>
-  <si>
-    <t>User List</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Admin manage accounts</t>
-  </si>
-  <si>
-    <t>User Details</t>
-  </si>
-  <si>
-    <t>User can view information about account and update information</t>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>It allow user can change new password</t>
+  </si>
+  <si>
+    <t>Products List</t>
+  </si>
+  <si>
+    <t>Seller</t>
+  </si>
+  <si>
+    <t>seller views and manages all products</t>
+  </si>
+  <si>
+    <t>Xuân Thái</t>
   </si>
   <si>
     <t>Not Start</t>
   </si>
   <si>
-    <t>Reset Password</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>User can retrieve password when forgotten by confirming information via email</t>
-  </si>
-  <si>
-    <t>Linh Trang</t>
-  </si>
-  <si>
-    <t>Change Password</t>
-  </si>
-  <si>
-    <t>It allow user can change new password</t>
-  </si>
-  <si>
-    <t>Cart Completion (Place Order)</t>
-  </si>
-  <si>
-    <t>Customer can comfirm order information like shipping information,... or change it</t>
-  </si>
-  <si>
-    <t>Xuân Thái</t>
-  </si>
-  <si>
     <t>User Profile</t>
   </si>
   <si>
     <t>User can view and update user's infomation</t>
   </si>
   <si>
-    <t>My Orders (xem lịch sử order) (Tổng quát)</t>
-  </si>
-  <si>
-    <t>Customers can view history of orders</t>
-  </si>
-  <si>
-    <t>Order Details (chi tiết)</t>
-  </si>
-  <si>
-    <t>Seller views the detail of 1 of his orders</t>
+    <t>Blog Details</t>
+  </si>
+  <si>
+    <t>Content of a blog</t>
   </si>
   <si>
     <t>Ngọc Thành</t>
   </si>
   <si>
-    <t>Products List</t>
-  </si>
-  <si>
-    <t>Seller</t>
-  </si>
-  <si>
-    <t>seller views and manages all products</t>
-  </si>
-  <si>
-    <t>Feedback</t>
-  </si>
-  <si>
-    <t>User can view feedback from other customer about a product</t>
+    <t>Blogs List</t>
+  </si>
+  <si>
+    <t>List of all the blogs for visitor to read</t>
   </si>
   <si>
     <t>literation 1</t>
@@ -205,9 +166,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -304,6 +265,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -311,10 +302,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,6 +337,45 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,88 +387,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -427,21 +403,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -511,174 +472,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -763,8 +724,8 @@
         <color rgb="FFCCCCCC"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,23 +733,25 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,17 +813,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,155 +844,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1065,21 +1039,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1098,13 +1078,13 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1437,10 +1417,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1510,7 +1490,7 @@
       <c r="H2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="27" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1537,7 +1517,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="27" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1564,11 +1544,11 @@
         <v>14</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="40.35" spans="1:9">
+    <row r="5" ht="20.55" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1578,11 +1558,11 @@
       <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>13</v>
@@ -1590,26 +1570,28 @@
       <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="25" t="s">
-        <v>26</v>
+      <c r="H5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" ht="20.55" spans="1:9">
+    <row r="6" ht="40.35" spans="1:9">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>13</v>
@@ -1617,28 +1599,26 @@
       <c r="G6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="24" t="s">
+      <c r="H6" s="14"/>
+      <c r="I6" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="40.35" spans="1:9">
+    <row r="7" ht="60.15" spans="1:9">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>13</v>
@@ -1646,47 +1626,49 @@
       <c r="G7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="24" t="s">
-        <v>16</v>
+      <c r="H7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="8" ht="20.55" spans="1:9">
+    <row r="8" ht="40.35" spans="1:9">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="25" t="s">
-        <v>26</v>
+      <c r="H8" s="18"/>
+      <c r="I8" s="28" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="9" ht="60.15" spans="1:9">
+    <row r="9" ht="40.35" spans="1:9">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>18</v>
@@ -1694,246 +1676,109 @@
       <c r="E9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="26" t="s">
+      <c r="H9" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="I9" s="29" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="10" ht="60.15" spans="1:9">
+    <row r="10" ht="40.35" spans="1:9">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="16" t="s">
         <v>40</v>
       </c>
+      <c r="C10" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="D10" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>26</v>
+      <c r="H10" s="19"/>
+      <c r="I10" s="29" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="11" ht="40.35" spans="1:9">
+    <row r="11" ht="20.55" spans="1:9">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>40</v>
+      <c r="B11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="25" t="s">
-        <v>26</v>
+      <c r="I11" s="29" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="12" ht="60.15" spans="1:9">
+    <row r="12" ht="40.35" spans="1:9">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" ht="40.35" spans="1:9">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" ht="40.35" spans="1:9">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" ht="40.35" spans="1:9">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" ht="40.35" spans="1:9">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" ht="40.35" spans="1:9">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="28" t="s">
-        <v>38</v>
+      <c r="H12" s="26"/>
+      <c r="I12" s="30" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
